--- a/Config Files/SACROS Lookup Table.xlsx
+++ b/Config Files/SACROS Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python!\Scheduling\Read Intrigma Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IntrigmaHelper\Config Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D159383-0DF5-45B1-AACC-245A8B5BAE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CE272-0B92-4DF6-9811-FCD09CFCAA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="2685" windowWidth="28905" windowHeight="18870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="1470" windowWidth="31305" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift Credit Lookup" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="257">
   <si>
     <t>Shift Name</t>
   </si>
@@ -700,6 +700,108 @@
   </si>
   <si>
     <t>CDA C lab</t>
+  </si>
+  <si>
+    <t>AOC-Ros</t>
+  </si>
+  <si>
+    <t>ROS Admin On Call</t>
+  </si>
+  <si>
+    <t>AOC-Sac</t>
+  </si>
+  <si>
+    <t>SAC Admin On Call</t>
+  </si>
+  <si>
+    <t>18r.</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>15Rt</t>
+  </si>
+  <si>
+    <t>10Rt</t>
+  </si>
+  <si>
+    <t>13r</t>
+  </si>
+  <si>
+    <t>15r</t>
+  </si>
+  <si>
+    <t>15r.</t>
+  </si>
+  <si>
+    <t>15R.</t>
+  </si>
+  <si>
+    <t>14R.</t>
+  </si>
+  <si>
+    <t>1545R</t>
+  </si>
+  <si>
+    <t>2045R</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>8m'</t>
+  </si>
+  <si>
+    <t>11m'</t>
+  </si>
+  <si>
+    <t>11m</t>
+  </si>
+  <si>
+    <t>Sac 4a-3p</t>
+  </si>
+  <si>
+    <t>Sac 8a-5p</t>
+  </si>
+  <si>
+    <t>Sac 11a-7p</t>
+  </si>
+  <si>
+    <t>Sac 11a-8p</t>
+  </si>
+  <si>
+    <t>Ros 5a-4p</t>
+  </si>
+  <si>
+    <t>Ros 10a-8p</t>
+  </si>
+  <si>
+    <t>Ros 1p-9p</t>
+  </si>
+  <si>
+    <t>Ros 3p-11p</t>
+  </si>
+  <si>
+    <t>Ros 3p-1a</t>
+  </si>
+  <si>
+    <t>Ros 345p-3a</t>
+  </si>
+  <si>
+    <t>Ros 6p-2a lab</t>
+  </si>
+  <si>
+    <t>Ros 845p-8a</t>
+  </si>
+  <si>
+    <t>12R.</t>
+  </si>
+  <si>
+    <t>18m.</t>
+  </si>
+  <si>
+    <t>8rp...</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56196751-214A-48C7-BC67-41954398F5C4}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1204,33 +1306,33 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">H2+I2+J2+K2</f>
+        <f t="shared" ref="N2:N67" si="0">H2+I2+J2+K2</f>
         <v>0.5</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="1">N2+L2</f>
+        <f t="shared" ref="O2:O67" si="1">N2+L2</f>
         <v>0.5</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="2">N2+M2</f>
+        <f t="shared" ref="P2:P67" si="2">N2+M2</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>11</v>
@@ -1238,61 +1340,61 @@
       <c r="G3" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H3">
-        <v>0.33</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="H3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P3">
         <f t="shared" si="2"/>
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H4">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1311,41 +1413,41 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>1.1599999999999999</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H5">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1364,41 +1466,41 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>1.08</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1417,23 +1519,23 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>207</v>
@@ -1442,10 +1544,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>215</v>
@@ -1463,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1474,7 +1576,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
@@ -1483,39 +1585,39 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8">
@@ -1536,22 +1638,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>215</v>
@@ -1569,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1580,7 +1682,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
@@ -1589,22 +1691,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>215</v>
@@ -1613,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1622,39 +1724,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
@@ -1666,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1675,145 +1777,145 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0.2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.6</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.4</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.3</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <v>11</v>
@@ -1825,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1834,42 +1936,42 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>215</v>
@@ -1878,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1887,39 +1989,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>0.35</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>11</v>
@@ -1931,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1940,42 +2042,42 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>215</v>
@@ -1984,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1993,42 +2095,42 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>215</v>
@@ -2037,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2053,35 +2155,35 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>215</v>
@@ -2090,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2106,35 +2208,35 @@
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D20" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>215</v>
@@ -2143,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2159,35 +2261,35 @@
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>215</v>
@@ -2196,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2212,32 +2314,32 @@
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>8</v>
@@ -2249,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2265,35 +2367,35 @@
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>215</v>
@@ -2302,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2318,35 +2420,35 @@
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>215</v>
@@ -2355,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2370,198 +2472,198 @@
         <v>1</v>
       </c>
       <c r="N24">
+        <f t="shared" ref="N24" si="3">H24+I24+J24+K24</f>
+        <v>0.5</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24" si="4">N24+L24</f>
+        <v>1.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="5">N24+M24</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.75</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O24">
+        <v>0.75</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P24">
+      <c r="P26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="1">
-        <v>23.99</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
         <v>8</v>
       </c>
-      <c r="F25" s="1">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+      <c r="G27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="O27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P25">
+      <c r="P27">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2570,151 +2672,151 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="1">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
         <v>11</v>
       </c>
-      <c r="E29" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>9.5</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>0.42499999999999999</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>1.075</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="1">
-        <v>14</v>
+        <v>23.99</v>
       </c>
       <c r="E30" s="1">
-        <v>23.5</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>16.5</v>
       </c>
       <c r="F31" s="1">
         <v>9.5</v>
@@ -2726,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2735,39 +2837,39 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>1.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D32" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>3.5</v>
+        <v>17.5</v>
       </c>
       <c r="F32" s="1">
         <v>9.5</v>
@@ -2779,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2788,48 +2890,48 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>1.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="F33" s="1">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2841,51 +2943,51 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
-        <v>14</v>
+        <v>20.5</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2894,51 +2996,51 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N66" si="3">H34+I34+J34+K34</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O66" si="4">N34+L34</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P66" si="5">N34+M34</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.075</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="F35" s="1">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H35">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2947,51 +3049,51 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
-        <v>1.1599999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="1">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3000,51 +3102,51 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.35</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.35</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.35</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="F37" s="1">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3053,48 +3155,48 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.875</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.875</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1">
         <v>8</v>
       </c>
-      <c r="E38" s="1">
-        <v>19</v>
-      </c>
-      <c r="F38" s="1">
-        <v>11</v>
-      </c>
       <c r="G38" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3106,48 +3208,48 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D39" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3165,86 +3267,86 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="P39">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
         <v>0</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D41" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1">
         <v>11</v>
@@ -3253,10 +3355,10 @@
         <v>215</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3265,42 +3367,42 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>0.16</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
+        <f t="shared" si="2"/>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>215</v>
@@ -3318,39 +3420,39 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1">
         <v>8</v>
@@ -3377,33 +3479,33 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1">
         <v>11</v>
@@ -3415,51 +3517,51 @@
         <v>0</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0.1</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0.4</v>
-      </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="P44">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D45" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>215</v>
@@ -3468,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3477,42 +3579,42 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D46" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>215</v>
@@ -3521,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3530,42 +3632,42 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D47" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>215</v>
@@ -3574,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3583,42 +3685,42 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="O47">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
+        <f t="shared" si="1"/>
+        <v>0.35</v>
       </c>
       <c r="P47">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D48" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>215</v>
@@ -3627,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3636,42 +3738,42 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="P48">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D49" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>215</v>
@@ -3680,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3689,42 +3791,42 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D50" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>215</v>
@@ -3733,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3742,92 +3844,92 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D51" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0.4</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.3</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="O51">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f t="shared" si="1"/>
+        <v>0.35</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D52" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F52" s="1">
         <v>11</v>
@@ -3839,51 +3941,51 @@
         <v>0</v>
       </c>
       <c r="I52">
+        <v>0.15</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>0.5</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
       <c r="O52">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>0.65</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D53" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>215</v>
@@ -3892,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3901,65 +4003,95 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="O53">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.35</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.05</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D54" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F54" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>215</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.15</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0.5</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D55" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>215</v>
@@ -3968,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3977,42 +4109,42 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="P55">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
+        <f t="shared" si="2"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F56" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>215</v>
@@ -4021,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4030,95 +4162,95 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="O56">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" ref="O56" si="6">N56+L56</f>
+        <v>0.8</v>
       </c>
       <c r="P56">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" ref="P56" si="7">N56+M56</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0.75</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.4</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="P57">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D58" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>215</v>
@@ -4127,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4142,33 +4274,33 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="O58">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f t="shared" si="1"/>
+        <v>1.3</v>
       </c>
       <c r="P58">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D59" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1">
         <v>10</v>
@@ -4180,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4195,33 +4327,33 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="O59">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f t="shared" si="1"/>
+        <v>1.3</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
+        <f t="shared" si="2"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D60" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>11</v>
@@ -4233,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4248,45 +4380,45 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="O60">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="P60">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D61" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0.5</v>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.4</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4301,86 +4433,86 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="O61">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="P61">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D62" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F62" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="O62">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="P62">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D63" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F63" s="1">
         <v>8</v>
@@ -4388,52 +4520,52 @@
       <c r="G63" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.2</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="O63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="P63">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D64" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1">
         <v>11</v>
@@ -4445,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4460,33 +4592,33 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O64">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="P64">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D65" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1">
         <v>11</v>
@@ -4494,111 +4626,111 @@
       <c r="G65" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="P65">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D66" s="1">
-        <v>23.99</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="O66">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="P66">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D67" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="F67" s="1">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4616,48 +4748,48 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N74" si="6">H67+I67+J67+K67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O74" si="7">N67+L67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P74" si="8">N67+M67</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1">
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.5</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4666,51 +4798,51 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="N68:N123" si="8">H68+I68+J68+K68</f>
+        <v>0.5</v>
       </c>
       <c r="O68">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="O68:O123" si="9">N68+L68</f>
+        <v>1.5</v>
       </c>
       <c r="P68">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="P68:P123" si="10">N68+M68</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D69" s="1">
-        <v>13</v>
+        <v>15.75</v>
       </c>
       <c r="E69" s="1">
-        <v>21.5</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0.125</v>
+        <v>215</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.75</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4719,30 +4851,30 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
+        <f t="shared" si="8"/>
+        <v>0.75</v>
       </c>
       <c r="O69">
-        <f t="shared" si="7"/>
-        <v>0.57499999999999996</v>
+        <f t="shared" si="9"/>
+        <v>1.75</v>
       </c>
       <c r="P69">
-        <f t="shared" si="8"/>
-        <v>1.125</v>
+        <f t="shared" si="10"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>208</v>
@@ -4751,19 +4883,19 @@
         <v>16</v>
       </c>
       <c r="E70" s="1">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4778,45 +4910,45 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
+        <f t="shared" si="8"/>
+        <v>0.3</v>
       </c>
       <c r="O70">
-        <f t="shared" si="7"/>
-        <v>1.35</v>
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
       <c r="P70">
-        <f t="shared" si="8"/>
-        <v>1.35</v>
+        <f t="shared" si="10"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D71" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E71" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4831,45 +4963,45 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="6"/>
-        <v>0.875</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="O71">
-        <f t="shared" si="7"/>
-        <v>1.875</v>
+        <f t="shared" si="9"/>
+        <v>1.5</v>
       </c>
       <c r="P71">
-        <f t="shared" si="8"/>
-        <v>1.875</v>
+        <f t="shared" si="10"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D72" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H72">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4878,42 +5010,42 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="6"/>
-        <v>0.16</v>
+        <f t="shared" si="8"/>
+        <v>0.75</v>
       </c>
       <c r="O72">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
+        <f t="shared" si="9"/>
+        <v>1.75</v>
       </c>
       <c r="P72">
-        <f t="shared" si="8"/>
-        <v>1.1599999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D73" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>215</v>
@@ -4937,36 +5069,36 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="O73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="P73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D74" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>215</v>
@@ -4975,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4990,36 +5122,36 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.75</v>
       </c>
       <c r="O74">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1.75</v>
       </c>
       <c r="P74">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D75" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E75" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>215</v>
@@ -5031,45 +5163,48 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D76" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>215</v>
@@ -5078,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5087,89 +5222,95 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.5</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D77" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.5</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
+      <c r="A78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>215</v>
@@ -5181,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -5193,33 +5334,36 @@
         <v>1</v>
       </c>
       <c r="N78">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O78">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P78">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
+      <c r="A79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>215</v>
@@ -5231,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -5243,48 +5387,51 @@
         <v>1</v>
       </c>
       <c r="N79">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O79">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P79">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" t="s">
-        <v>96</v>
+      <c r="A80" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="1">
-        <v>4</v>
+        <v>20.75</v>
       </c>
       <c r="E80" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5293,33 +5440,36 @@
         <v>1</v>
       </c>
       <c r="N80">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O80">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P80">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" t="s">
-        <v>174</v>
+      <c r="A81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>215</v>
@@ -5331,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5343,33 +5493,36 @@
         <v>1</v>
       </c>
       <c r="N81">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O81">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P81">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" t="s">
-        <v>166</v>
+      <c r="A82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>215</v>
@@ -5381,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5393,30 +5546,33 @@
         <v>1</v>
       </c>
       <c r="N82">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O82">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P82">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" t="s">
-        <v>78</v>
+      <c r="A83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D83" s="1">
-        <v>6</v>
+        <v>23.99</v>
       </c>
       <c r="E83" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1">
         <v>8</v>
@@ -5425,260 +5581,275 @@
         <v>215</v>
       </c>
       <c r="H83">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>0.16</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.16</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>1.1599999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
+      <c r="A84" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D84" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="F84" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1">
         <v>8</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0.15</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
+      <c r="E85" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="1">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.125</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0.45</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="9"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="10"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="1">
+        <v>16</v>
+      </c>
+      <c r="E88" s="1">
         <v>0.5</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>0.15</v>
-      </c>
-      <c r="O84">
-        <v>0.65</v>
-      </c>
-      <c r="P84">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="1">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1">
-        <v>22</v>
-      </c>
-      <c r="F85" s="1">
-        <v>16</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H85">
-        <v>0.16</v>
-      </c>
-      <c r="I85">
-        <v>0.15</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0.5</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>0.31</v>
-      </c>
-      <c r="O85">
-        <v>0.81</v>
-      </c>
-      <c r="P85">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6</v>
-      </c>
-      <c r="E86" s="1">
-        <v>14</v>
-      </c>
-      <c r="F86" s="1">
-        <v>8</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H86">
-        <v>0.16</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>0.16</v>
-      </c>
-      <c r="O86">
-        <v>0.16</v>
-      </c>
-      <c r="P86">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="1">
-        <v>15</v>
-      </c>
-      <c r="E87" s="1">
-        <v>22</v>
-      </c>
-      <c r="F87" s="1">
-        <v>8</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0.15</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0.5</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>0.15</v>
-      </c>
-      <c r="O87">
-        <v>0.65</v>
-      </c>
-      <c r="P87">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="1">
-        <v>6</v>
-      </c>
-      <c r="E88" s="1">
-        <v>22</v>
-      </c>
       <c r="F88" s="1">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H88">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5687,48 +5858,51 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>0.31</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="O88">
-        <v>0.81</v>
+        <f t="shared" si="9"/>
+        <v>1.35</v>
       </c>
       <c r="P88">
-        <v>1.31</v>
+        <f t="shared" si="10"/>
+        <v>1.35</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
+      <c r="A89" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D89" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E89" s="1">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="F89" s="1">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H89">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5737,39 +5911,42 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>0.16</v>
+        <f t="shared" si="8"/>
+        <v>0.875</v>
       </c>
       <c r="O89">
-        <v>0.16</v>
+        <f t="shared" si="9"/>
+        <v>1.875</v>
       </c>
       <c r="P89">
-        <v>1.1599999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1.875</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>112</v>
+      <c r="A90" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D90" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1">
         <v>16</v>
       </c>
       <c r="F90" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>215</v>
@@ -5793,133 +5970,142 @@
         <v>1</v>
       </c>
       <c r="N90">
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
       <c r="O90">
+        <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
       <c r="P90">
+        <f t="shared" si="10"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
-        <v>113</v>
+      <c r="A91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91" s="1">
+        <v>15</v>
+      </c>
+      <c r="E91" s="1">
+        <v>24</v>
+      </c>
+      <c r="F91" s="1">
+        <v>9</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0.4</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="1">
+        <v>23</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="1">
         <v>6</v>
       </c>
-      <c r="E91" s="1">
-        <v>18</v>
-      </c>
-      <c r="F91" s="1">
-        <v>12</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H91">
-        <v>0.16</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>0.16</v>
-      </c>
-      <c r="O91">
-        <v>0.16</v>
-      </c>
-      <c r="P91">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="1">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1">
-        <v>15</v>
-      </c>
-      <c r="F92" s="1">
+      <c r="E93" s="1">
         <v>7</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="1">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1">
-        <v>20</v>
-      </c>
       <c r="F93" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>215</v>
@@ -5928,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5937,39 +6123,42 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>0.05</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>0.35</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>1.05</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
+      <c r="A94" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D94" s="1">
         <v>12</v>
       </c>
       <c r="E94" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>215</v>
@@ -5978,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5987,39 +6176,42 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>0.3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P94">
-        <v>1.3</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" t="s">
-        <v>116</v>
+      <c r="A95" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D95" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E95" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>215</v>
@@ -6028,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -6037,39 +6229,42 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>0.3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>1.3</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="D96" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>215</v>
@@ -6078,48 +6273,51 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <v>1</v>
       </c>
       <c r="N96">
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.65</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="P96">
-        <v>1.1499999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E97" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>215</v>
@@ -6131,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -6143,35 +6341,38 @@
         <v>1</v>
       </c>
       <c r="N97">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O97">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P97">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D98" s="2">
-        <v>9</v>
-      </c>
-      <c r="E98" s="2">
-        <v>24</v>
-      </c>
-      <c r="F98" s="2">
-        <v>15</v>
-      </c>
-      <c r="G98" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H98">
@@ -6181,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6193,33 +6394,36 @@
         <v>1</v>
       </c>
       <c r="N98">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O98">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>215</v>
@@ -6231,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6243,33 +6447,36 @@
         <v>1</v>
       </c>
       <c r="N99">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O99">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D100" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>215</v>
@@ -6284,54 +6491,54 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <f>SUM(H100:K100)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O100">
-        <f>SUM(H100:L100)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="P100">
-        <f>SUM(H100+I100+J100+K100+M100)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="D101" s="1">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6340,39 +6547,39 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>1</v>
       </c>
       <c r="N101">
-        <f>SUM(H101:K101)</f>
-        <v>0.4</v>
+        <f t="shared" si="8"/>
+        <v>0.16</v>
       </c>
       <c r="O101">
-        <f>SUM(H101:L101)</f>
-        <v>1.4</v>
+        <f t="shared" si="9"/>
+        <v>0.16</v>
       </c>
       <c r="P101">
-        <f>SUM(H101+I101+J101+K101+M101)</f>
-        <v>1.4</v>
+        <f t="shared" si="10"/>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E102" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1">
         <v>8</v>
@@ -6384,103 +6591,1166 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="N102">
-        <f>SUM(H102:K102)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.15</v>
       </c>
       <c r="O102">
-        <f>SUM(H102:L102)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0.65</v>
       </c>
       <c r="P102">
-        <f>SUM(H102+I102+J102+K102+M102)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1">
+        <v>22</v>
+      </c>
+      <c r="F103" s="1">
+        <v>16</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H103">
+        <v>0.16</v>
+      </c>
+      <c r="I103">
+        <v>0.15</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0.5</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="8"/>
+        <v>0.31</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="9"/>
+        <v>0.81</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="10"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1">
+        <v>8</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H104">
+        <v>0.16</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="10"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="1">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1">
+        <v>22</v>
+      </c>
+      <c r="F105" s="1">
+        <v>8</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0.15</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0.5</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1">
+        <v>22</v>
+      </c>
+      <c r="F106" s="1">
+        <v>16</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106">
+        <v>0.16</v>
+      </c>
+      <c r="I106">
+        <v>0.15</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0.5</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="8"/>
+        <v>0.31</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="9"/>
+        <v>0.81</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="10"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1">
+        <v>6</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107">
+        <v>0.16</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="10"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1">
+        <v>16</v>
+      </c>
+      <c r="F108" s="1">
+        <v>10</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108">
+        <v>0.16</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="10"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1">
+        <v>12</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109">
+        <v>0.16</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="10"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="1">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1">
+        <v>15</v>
+      </c>
+      <c r="F110" s="1">
+        <v>7</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="1">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1">
+        <v>20</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0.05</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0.3</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="1">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1">
+        <v>24</v>
+      </c>
+      <c r="F112" s="1">
+        <v>12</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0.3</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0.8</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="1">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>24</v>
+      </c>
+      <c r="F113" s="1">
+        <v>9</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0.3</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0.8</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="1">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1">
+        <v>22</v>
+      </c>
+      <c r="F114" s="1">
+        <v>7</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0.15</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0.5</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6</v>
+      </c>
+      <c r="F115" s="1">
+        <v>8</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="2">
+        <v>9</v>
+      </c>
+      <c r="E116" s="2">
+        <v>24</v>
+      </c>
+      <c r="F116" s="2">
+        <v>15</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>13</v>
+      </c>
+      <c r="F117" s="1">
+        <v>13</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0.4</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1">
+        <v>8</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B121" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D121" s="1">
         <v>5</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E121" s="1">
         <v>16</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F121" s="1">
         <v>11</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="G121" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config Files/SACROS Lookup Table.xlsx
+++ b/Config Files/SACROS Lookup Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IntrigmaHelper\Config Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CE272-0B92-4DF6-9811-FCD09CFCAA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00861289-9D25-4667-A6E5-665B9966091E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1470" windowWidth="31305" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43170" yWindow="945" windowWidth="31305" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift Credit Lookup" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="258">
   <si>
     <t>Shift Name</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>8rp...</t>
+  </si>
+  <si>
+    <t>EPRP 2</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56196751-214A-48C7-BC67-41954398F5C4}">
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7365,7 +7368,7 @@
         <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>64</v>

--- a/Config Files/SACROS Lookup Table.xlsx
+++ b/Config Files/SACROS Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Desktop\IntrigmaHelper\Config Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4AF44-51E9-4E58-93AF-0323081DCDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A953764-C051-4B5B-A483-9A6034E59E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="3375" windowWidth="27015" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift Types" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="393">
   <si>
     <t>Shift Name</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>Sac 12a-8a vol</t>
+  </si>
+  <si>
+    <t>t2 (6p-10p)</t>
   </si>
 </sst>
 </file>
@@ -1626,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56196751-214A-48C7-BC67-41954398F5C4}">
-  <dimension ref="A1:P209"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H190" sqref="H190:P190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11958,7 +11961,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="B190" t="s">
         <v>267</v>
@@ -11967,13 +11970,13 @@
         <v>62</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E190">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G190" s="11" t="s">
         <v>211</v>
@@ -11981,19 +11984,19 @@
       <c r="H190">
         <v>0</v>
       </c>
-      <c r="I190" s="1">
-        <v>0</v>
-      </c>
-      <c r="J190" s="1">
-        <v>0</v>
-      </c>
-      <c r="K190" s="1">
-        <v>0</v>
-      </c>
-      <c r="L190" s="1">
-        <v>0</v>
-      </c>
-      <c r="M190" s="1">
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
         <v>0</v>
       </c>
       <c r="N190">
@@ -12008,7 +12011,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B191" t="s">
         <v>267</v>
@@ -12017,13 +12020,13 @@
         <v>62</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G191" s="11" t="s">
         <v>211</v>
@@ -12058,7 +12061,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B192" t="s">
         <v>267</v>
@@ -12067,13 +12070,13 @@
         <v>62</v>
       </c>
       <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
         <v>11</v>
       </c>
-      <c r="E192">
-        <v>13</v>
-      </c>
       <c r="F192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G192" s="11" t="s">
         <v>211</v>
@@ -12108,7 +12111,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B193" t="s">
         <v>267</v>
@@ -12117,13 +12120,13 @@
         <v>62</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G193" s="11" t="s">
         <v>211</v>
@@ -12158,7 +12161,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B194" t="s">
         <v>267</v>
@@ -12167,13 +12170,13 @@
         <v>62</v>
       </c>
       <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194">
         <v>12</v>
       </c>
-      <c r="E194">
-        <v>15</v>
-      </c>
       <c r="F194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G194" s="11" t="s">
         <v>211</v>
@@ -12208,7 +12211,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="B195" t="s">
         <v>267</v>
@@ -12217,13 +12220,13 @@
         <v>62</v>
       </c>
       <c r="D195">
+        <v>12</v>
+      </c>
+      <c r="E195">
         <v>15</v>
       </c>
-      <c r="E195">
-        <v>22</v>
-      </c>
       <c r="F195">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>211</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B196" t="s">
         <v>267</v>
@@ -12267,13 +12270,13 @@
         <v>62</v>
       </c>
       <c r="D196">
+        <v>15</v>
+      </c>
+      <c r="E196">
         <v>22</v>
       </c>
-      <c r="E196">
-        <v>24</v>
-      </c>
       <c r="F196">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G196" s="11" t="s">
         <v>211</v>
@@ -12308,7 +12311,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
         <v>267</v>
@@ -12317,13 +12320,13 @@
         <v>62</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G197" s="11" t="s">
         <v>211</v>
@@ -12358,7 +12361,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
         <v>267</v>
@@ -12367,13 +12370,13 @@
         <v>62</v>
       </c>
       <c r="D198">
+        <v>14</v>
+      </c>
+      <c r="E198">
         <v>17</v>
       </c>
-      <c r="E198">
-        <v>22</v>
-      </c>
       <c r="F198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G198" s="11" t="s">
         <v>211</v>
@@ -12408,22 +12411,22 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C199" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G199" s="11" t="s">
         <v>211</v>
@@ -12458,7 +12461,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B200" t="s">
         <v>304</v>
@@ -12508,22 +12511,22 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="D201">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G201" s="11" t="s">
         <v>211</v>
@@ -12558,22 +12561,22 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D202">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>19</v>
+      </c>
+      <c r="F202">
         <v>8</v>
-      </c>
-      <c r="E202">
-        <v>22</v>
-      </c>
-      <c r="F202">
-        <v>16</v>
       </c>
       <c r="G202" s="11" t="s">
         <v>211</v>
@@ -12608,22 +12611,22 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C203" t="s">
         <v>204</v>
       </c>
       <c r="D203">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F203">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G203" s="11" t="s">
         <v>211</v>
@@ -12658,19 +12661,19 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B204" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F204">
         <v>14</v>
@@ -12708,19 +12711,19 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B205" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
         <v>203</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F205">
         <v>14</v>
@@ -12757,25 +12760,25 @@
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D206" s="1">
-        <v>6</v>
-      </c>
-      <c r="E206" s="1">
+      <c r="A206" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B206" t="s">
+        <v>294</v>
+      </c>
+      <c r="C206" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206">
+        <v>17</v>
+      </c>
+      <c r="E206">
         <v>7</v>
       </c>
-      <c r="F206" s="1">
-        <v>1</v>
-      </c>
-      <c r="G206" s="8" t="s">
+      <c r="F206">
+        <v>14</v>
+      </c>
+      <c r="G206" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H206">
@@ -12797,33 +12800,30 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <f>H206+I206+J206+K206</f>
         <v>0</v>
       </c>
       <c r="O206">
-        <f>N206+L206</f>
         <v>0</v>
       </c>
       <c r="P206">
-        <f>N206+M206</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D207" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E207" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F207" s="1">
         <v>1</v>
@@ -12864,19 +12864,19 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D208" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E208" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F208" s="1">
         <v>1</v>
@@ -12917,22 +12917,22 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="D209" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E209" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F209" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>211</v>
@@ -12965,6 +12965,59 @@
       </c>
       <c r="P209">
         <f>N209+M209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D210" s="1">
+        <v>15</v>
+      </c>
+      <c r="E210" s="1">
+        <v>18</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>0</v>
+      </c>
+      <c r="K210" s="1">
+        <v>0</v>
+      </c>
+      <c r="L210" s="1">
+        <v>0</v>
+      </c>
+      <c r="M210" s="1">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <f>H210+I210+J210+K210</f>
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f>N210+L210</f>
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <f>N210+M210</f>
         <v>0</v>
       </c>
     </row>

--- a/Config Files/SACROS Lookup Table.xlsx
+++ b/Config Files/SACROS Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Desktop\IntrigmaHelper\Config Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42FF08-1064-4450-BBFE-181B3DB1F585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57AA6A-BDE5-4D7A-A976-98A225680208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="555" windowWidth="33345" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3285" windowWidth="33345" windowHeight="19065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift Types" sheetId="7" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="423">
   <si>
     <t>Shift Name</t>
   </si>
@@ -1292,6 +1286,15 @@
   </si>
   <si>
     <t>Ros 4a-12p.</t>
+  </si>
+  <si>
+    <t>12R RSP</t>
+  </si>
+  <si>
+    <t>5m v</t>
+  </si>
+  <si>
+    <t>Sac 5a-1p vol</t>
   </si>
 </sst>
 </file>
@@ -1710,11 +1713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56196751-214A-48C7-BC67-41954398F5C4}">
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:P227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6275,7 +6278,7 @@
         <v>19</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" ref="F80:F146" si="24">IF($E80&gt;$D80, $E80-$D80, 24+$E80-$D80)</f>
+        <f t="shared" ref="F80:F147" si="24">IF($E80&gt;$D80, $E80-$D80, 24+$E80-$D80)</f>
         <v>8</v>
       </c>
       <c r="G80" s="8" t="s">
@@ -6290,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:J90" si="25" xml:space="preserve"> IF(AND($E80 &gt;=4, $E80 &lt;=11), 1, 0)</f>
+        <f t="shared" ref="J80:J91" si="25" xml:space="preserve"> IF(AND($E80 &gt;=4, $E80 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K80">
@@ -6304,15 +6307,15 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" ref="N80:N145" si="26">H80+I80+J80+K80</f>
+        <f t="shared" ref="N80:N146" si="26">H80+I80+J80+K80</f>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" ref="O80:O145" si="27">N80+L80</f>
+        <f t="shared" ref="O80:O146" si="27">N80+L80</f>
         <v>0.1</v>
       </c>
       <c r="P80">
-        <f t="shared" ref="P80:P145" si="28">N80+M80</f>
+        <f t="shared" ref="P80:P146" si="28">N80+M80</f>
         <v>1</v>
       </c>
     </row>
@@ -6666,23 +6669,23 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>225</v>
+        <v>420</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D87" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>211</v>
@@ -6693,7 +6696,7 @@
       </c>
       <c r="I87">
         <f>IFERROR(VLOOKUP($E87, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J87">
         <f t="shared" si="25"/>
@@ -6704,88 +6707,88 @@
       </c>
       <c r="L87">
         <f>IFERROR(VLOOKUP($E87, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <f t="shared" ref="N87" si="29">H87+I87+J87+K87</f>
+        <v>0.2</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ref="O87" si="30">N87+L87</f>
+        <v>0.8</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ref="P87" si="31">N87+M87</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="1">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88">
+        <f>IFERROR(VLOOKUP($D88, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>IFERROR(VLOOKUP($E88, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f>IFERROR(VLOOKUP($E88, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
         <v>0.4</v>
       </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="O87">
+      <c r="O88">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="P87">
+      <c r="P88">
         <f t="shared" si="28"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="1">
-        <v>13</v>
-      </c>
-      <c r="E88" s="1">
-        <v>23</v>
-      </c>
-      <c r="F88" s="1">
-        <f>IF($E88&gt;$D88, $E88-$D88, 24+$E88-$D88)</f>
-        <v>10</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H88">
-        <f>IFERROR(VLOOKUP($D88, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <f>IFERROR(VLOOKUP($E88, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J88">
-        <f xml:space="preserve"> IF(AND($E88 &gt;=4, $E88 &lt;=11), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <f>IFERROR(VLOOKUP($E88, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.6</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <f>H88+I88+J88+K88</f>
-        <v>0.2</v>
-      </c>
-      <c r="O88">
-        <f>N88+L88</f>
-        <v>0.8</v>
-      </c>
-      <c r="P88">
-        <f>N88+M88</f>
-        <v>1.2</v>
-      </c>
-    </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>204</v>
@@ -6794,11 +6797,11 @@
         <v>13</v>
       </c>
       <c r="E89" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="24"/>
-        <v>11</v>
+        <f>IF($E89&gt;$D89, $E89-$D89, 24+$E89-$D89)</f>
+        <v>10</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>211</v>
@@ -6809,10 +6812,10 @@
       </c>
       <c r="I89">
         <f>IFERROR(VLOOKUP($E89, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J89">
-        <f t="shared" si="25"/>
+        <f xml:space="preserve"> IF(AND($E89 &gt;=4, $E89 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K89">
@@ -6820,27 +6823,27 @@
       </c>
       <c r="L89">
         <f>IFERROR(VLOOKUP($E89, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <f>H89+I89+J89+K89</f>
+        <v>0.2</v>
+      </c>
+      <c r="O89">
+        <f>N89+L89</f>
         <v>0.8</v>
       </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="26"/>
-        <v>0.3</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="27"/>
-        <v>1.1000000000000001</v>
-      </c>
       <c r="P89">
-        <f t="shared" si="28"/>
-        <v>1.3</v>
+        <f>N89+M89</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>37</v>
@@ -6898,23 +6901,23 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D91" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>211</v>
@@ -6925,10 +6928,10 @@
       </c>
       <c r="I91">
         <f>IFERROR(VLOOKUP($E91, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J91">
-        <f t="shared" ref="J91:J111" si="29" xml:space="preserve"> IF(AND($E91 &gt;=4, $E91 &lt;=11), 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K91">
@@ -6936,30 +6939,30 @@
       </c>
       <c r="L91">
         <f>IFERROR(VLOOKUP($E91, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O91">
         <f t="shared" si="27"/>
-        <v>0.65</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P91">
         <f t="shared" si="28"/>
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>204</v>
@@ -6968,11 +6971,11 @@
         <v>14</v>
       </c>
       <c r="E92" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>211</v>
@@ -6983,10 +6986,10 @@
       </c>
       <c r="I92">
         <f>IFERROR(VLOOKUP($E92, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J92">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J92:J112" si="32" xml:space="preserve"> IF(AND($E92 &gt;=4, $E92 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K92">
@@ -6994,30 +6997,30 @@
       </c>
       <c r="L92">
         <f>IFERROR(VLOOKUP($E92, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
       <c r="N92">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O92">
         <f t="shared" si="27"/>
-        <v>1.1000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="P92">
         <f t="shared" si="28"/>
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>204</v>
@@ -7026,11 +7029,11 @@
         <v>14</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>211</v>
@@ -7041,10 +7044,10 @@
       </c>
       <c r="I93">
         <f>IFERROR(VLOOKUP($E93, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J93">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -7052,151 +7055,151 @@
       </c>
       <c r="L93">
         <f>IFERROR(VLOOKUP($E93, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O93">
         <f t="shared" si="27"/>
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P93">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>393</v>
+      <c r="A94" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>14</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>11</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="1">
-        <v>14</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H95">
-        <f>IFERROR(VLOOKUP($D95, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f>IFERROR(VLOOKUP($E95, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+      <c r="G94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94">
+        <f>IFERROR(VLOOKUP($D94, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>IFERROR(VLOOKUP($E94, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0.4</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f>IFERROR(VLOOKUP($E95, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
+      <c r="J94">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f>IFERROR(VLOOKUP($E94, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
-      <c r="O95">
+      <c r="O94">
         <f t="shared" si="27"/>
         <v>1.4</v>
       </c>
-      <c r="P95">
+      <c r="P94">
         <f t="shared" si="28"/>
         <v>1.4</v>
       </c>
     </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>211</v>
@@ -7207,10 +7210,10 @@
       </c>
       <c r="I96">
         <f>IFERROR(VLOOKUP($E96, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J96">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K96">
@@ -7218,27 +7221,27 @@
       </c>
       <c r="L96">
         <f>IFERROR(VLOOKUP($E96, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <v>1</v>
       </c>
       <c r="N96">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O96">
         <f t="shared" si="27"/>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="P96">
         <f t="shared" si="28"/>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>243</v>
@@ -7268,7 +7271,7 @@
         <v>0.2</v>
       </c>
       <c r="J97">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K97">
@@ -7296,10 +7299,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>204</v>
@@ -7308,11 +7311,11 @@
         <v>15</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F98" s="1">
-        <f>IF($E98&gt;$D98, $E98-$D98, 24+$E98-$D98)</f>
-        <v>10</v>
+        <f t="shared" si="24"/>
+        <v>8</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>211</v>
@@ -7323,10 +7326,10 @@
       </c>
       <c r="I98">
         <f>IFERROR(VLOOKUP($E98, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J98">
-        <f xml:space="preserve"> IF(AND($E98 &gt;=4, $E98 &lt;=11), 1, 0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K98">
@@ -7334,30 +7337,30 @@
       </c>
       <c r="L98">
         <f>IFERROR(VLOOKUP($E98, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <f>H98+I98+J98+K98</f>
-        <v>0.4</v>
+        <f t="shared" si="26"/>
+        <v>0.2</v>
       </c>
       <c r="O98">
-        <f>N98+L98</f>
-        <v>1.4</v>
+        <f t="shared" si="27"/>
+        <v>0.8</v>
       </c>
       <c r="P98">
-        <f>N98+M98</f>
-        <v>1.4</v>
+        <f t="shared" si="28"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>204</v>
@@ -7366,164 +7369,164 @@
         <v>15</v>
       </c>
       <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <f>IF($E99&gt;$D99, $E99-$D99, 24+$E99-$D99)</f>
+        <v>10</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99">
+        <f>IFERROR(VLOOKUP($D99, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>IFERROR(VLOOKUP($E99, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J99">
+        <f xml:space="preserve"> IF(AND($E99 &gt;=4, $E99 &lt;=11), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f>IFERROR(VLOOKUP($E99, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <f>H99+I99+J99+K99</f>
+        <v>0.4</v>
+      </c>
+      <c r="O99">
+        <f>N99+L99</f>
+        <v>1.4</v>
+      </c>
+      <c r="P99">
+        <f>N99+M99</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="1">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1">
         <v>2</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F100" s="1">
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H99">
-        <f>IFERROR(VLOOKUP($D99, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <f>IFERROR(VLOOKUP($E99, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+      <c r="G100" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100">
+        <f>IFERROR(VLOOKUP($D100, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>IFERROR(VLOOKUP($E100, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0.5</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f>IFERROR(VLOOKUP($E99, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
+      <c r="J100">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f>IFERROR(VLOOKUP($E100, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="O99">
+      <c r="O100">
         <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
-      <c r="P99">
+      <c r="P100">
         <f t="shared" si="28"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>204</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>15</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>2</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>11</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="1">
-        <v>15</v>
-      </c>
-      <c r="E101" s="1">
-        <v>2</v>
-      </c>
-      <c r="F101" s="1">
-        <f t="shared" si="24"/>
-        <v>11</v>
-      </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H101">
-        <f>IFERROR(VLOOKUP($D101, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="I101">
-        <f>IFERROR(VLOOKUP($E101, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <f>IFERROR(VLOOKUP($E101, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P101">
-        <f t="shared" si="28"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>204</v>
@@ -7550,7 +7553,7 @@
         <v>0.5</v>
       </c>
       <c r="J102">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K102">
@@ -7578,23 +7581,23 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D103" s="1">
-        <v>15.75</v>
+        <v>15</v>
       </c>
       <c r="E103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="24"/>
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>211</v>
@@ -7605,10 +7608,10 @@
       </c>
       <c r="I103">
         <f>IFERROR(VLOOKUP($E103, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J103">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K103">
@@ -7623,36 +7626,36 @@
       </c>
       <c r="N103">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O103">
         <f t="shared" si="27"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P103">
         <f t="shared" si="28"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D104" s="1">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="E104" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>211</v>
@@ -7663,10 +7666,10 @@
       </c>
       <c r="I104">
         <f>IFERROR(VLOOKUP($E104, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="J104">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K104">
@@ -7674,30 +7677,30 @@
       </c>
       <c r="L104">
         <f>IFERROR(VLOOKUP($E104, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M104">
         <v>1</v>
       </c>
       <c r="N104">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="O104">
         <f t="shared" si="27"/>
-        <v>1.1000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="P104">
         <f t="shared" si="28"/>
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>204</v>
@@ -7706,11 +7709,11 @@
         <v>16</v>
       </c>
       <c r="E105" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>211</v>
@@ -7721,10 +7724,10 @@
       </c>
       <c r="I105">
         <f>IFERROR(VLOOKUP($E105, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J105">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K105">
@@ -7732,30 +7735,30 @@
       </c>
       <c r="L105">
         <f>IFERROR(VLOOKUP($E105, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M105">
         <v>1</v>
       </c>
       <c r="N105">
         <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O105">
         <f t="shared" si="27"/>
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P105">
         <f t="shared" si="28"/>
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>204</v>
@@ -7764,11 +7767,11 @@
         <v>16</v>
       </c>
       <c r="E106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>211</v>
@@ -7779,10 +7782,10 @@
       </c>
       <c r="I106">
         <f>IFERROR(VLOOKUP($E106, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K106">
@@ -7797,20 +7800,20 @@
       </c>
       <c r="N106">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O106">
         <f t="shared" si="27"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P106">
         <f t="shared" si="28"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>43</v>
@@ -7840,7 +7843,7 @@
         <v>0.75</v>
       </c>
       <c r="J107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K107">
@@ -7868,23 +7871,23 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D108" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>211</v>
@@ -7895,10 +7898,10 @@
       </c>
       <c r="I108">
         <f>IFERROR(VLOOKUP($E108, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="J108">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K108">
@@ -7913,23 +7916,23 @@
       </c>
       <c r="N108">
         <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="O108">
         <f t="shared" si="27"/>
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="P108">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>204</v>
@@ -7938,11 +7941,11 @@
         <v>17</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>211</v>
@@ -7953,10 +7956,10 @@
       </c>
       <c r="I109">
         <f>IFERROR(VLOOKUP($E109, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="J109">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K109">
@@ -7971,23 +7974,23 @@
       </c>
       <c r="N109">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="O109">
         <f t="shared" si="27"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="P109">
         <f t="shared" si="28"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>204</v>
@@ -7996,11 +7999,11 @@
         <v>17</v>
       </c>
       <c r="E110" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>211</v>
@@ -8011,11 +8014,11 @@
       </c>
       <c r="I110">
         <f>IFERROR(VLOOKUP($E110, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J110">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -8029,36 +8032,36 @@
       </c>
       <c r="N110">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O110">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P110">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D111" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>211</v>
@@ -8069,11 +8072,11 @@
       </c>
       <c r="I111">
         <f>IFERROR(VLOOKUP($E111, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -8087,23 +8090,23 @@
       </c>
       <c r="N111">
         <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O111">
         <f t="shared" si="27"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P111">
         <f t="shared" si="28"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>204</v>
@@ -8130,7 +8133,7 @@
         <v>0.5</v>
       </c>
       <c r="J112">
-        <f xml:space="preserve"> IF(AND($E112 &gt;=4, $E112 &lt;=11), 1, 0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K112">
@@ -8158,10 +8161,10 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>204</v>
@@ -8188,7 +8191,7 @@
         <v>0.5</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113:J121" si="30" xml:space="preserve"> IF(AND($E113 &gt;=4, $E113 &lt;=11), 1, 0)</f>
+        <f xml:space="preserve"> IF(AND($E113 &gt;=4, $E113 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K113">
@@ -8216,19 +8219,19 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D114" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E114" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="24"/>
@@ -8243,10 +8246,10 @@
       </c>
       <c r="I114">
         <f>IFERROR(VLOOKUP($E114, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J114">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="J114:J122" si="33" xml:space="preserve"> IF(AND($E114 &gt;=4, $E114 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K114">
@@ -8261,23 +8264,23 @@
       </c>
       <c r="N114">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O114">
         <f t="shared" si="27"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P114">
         <f t="shared" si="28"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>204</v>
@@ -8286,11 +8289,11 @@
         <v>19</v>
       </c>
       <c r="E115" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>211</v>
@@ -8301,11 +8304,11 @@
       </c>
       <c r="I115">
         <f>IFERROR(VLOOKUP($E115, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J115">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -8319,36 +8322,36 @@
       </c>
       <c r="N115">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O115">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P115">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D116" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E116" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>211</v>
@@ -8362,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K116">
@@ -8390,23 +8393,23 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D117" s="1">
-        <v>20.75</v>
+        <v>20</v>
       </c>
       <c r="E117" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="24"/>
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>211</v>
@@ -8420,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K117">
@@ -8448,23 +8451,23 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D118" s="1">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="E118" s="1">
         <v>8</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>211</v>
@@ -8478,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K118">
@@ -8506,19 +8509,19 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D119" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E119" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="24"/>
@@ -8536,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K119">
@@ -8564,23 +8567,23 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D120" s="1">
-        <v>23.99</v>
+        <v>22</v>
       </c>
       <c r="E120" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="24"/>
-        <v>8.0100000000000016</v>
+        <v>11</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>211</v>
@@ -8594,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K120">
@@ -8622,26 +8625,26 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="1">
+        <v>23.99</v>
+      </c>
+      <c r="E121" s="1">
         <v>8</v>
-      </c>
-      <c r="E121" s="1">
-        <v>17.5</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="24"/>
-        <v>9.5</v>
+        <v>8.0100000000000016</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H121">
         <f>IFERROR(VLOOKUP($D121, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
@@ -8652,38 +8655,38 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
         <f>IFERROR(VLOOKUP($E121, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
         <v>1</v>
       </c>
       <c r="N121">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P121">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>204</v>
@@ -8692,11 +8695,11 @@
         <v>8</v>
       </c>
       <c r="E122" s="1">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="24"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>212</v>
@@ -8710,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <f xml:space="preserve"> IF(AND($E122 &gt;=4, $E122 &lt;=11), 1, 0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K122">
@@ -8738,10 +8741,10 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>204</v>
@@ -8750,11 +8753,11 @@
         <v>8</v>
       </c>
       <c r="E123" s="1">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>212</v>
@@ -8768,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" ref="J123:J162" si="31" xml:space="preserve"> IF(AND($E123 &gt;=4, $E123 &lt;=11), 1, 0)</f>
+        <f xml:space="preserve"> IF(AND($E123 &gt;=4, $E123 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K123">
@@ -8796,10 +8799,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>204</v>
@@ -8808,11 +8811,11 @@
         <v>8</v>
       </c>
       <c r="E124" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="24"/>
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>212</v>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="J124:J163" si="34" xml:space="preserve"> IF(AND($E124 &gt;=4, $E124 &lt;=11), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K124">
@@ -8854,19 +8857,19 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D125" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="24"/>
@@ -8884,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K125">
@@ -8912,19 +8915,19 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D126" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1">
-        <v>20.5</v>
+        <v>17.5</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="24"/>
@@ -8939,10 +8942,10 @@
       </c>
       <c r="I126">
         <f>IFERROR(VLOOKUP($E126, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K126">
@@ -8950,39 +8953,39 @@
       </c>
       <c r="L126">
         <f>IFERROR(VLOOKUP($E126, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="N126">
         <f t="shared" si="26"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="O126">
         <f t="shared" si="27"/>
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="P126">
         <f t="shared" si="28"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D127" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" s="1">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="24"/>
@@ -8997,10 +9000,10 @@
       </c>
       <c r="I127">
         <f>IFERROR(VLOOKUP($E127, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K127">
@@ -9008,30 +9011,30 @@
       </c>
       <c r="L127">
         <f>IFERROR(VLOOKUP($E127, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="N127">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O127">
         <f t="shared" si="27"/>
-        <v>0.57499999999999996</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="P127">
         <f t="shared" si="28"/>
-        <v>1.125</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>204</v>
@@ -9058,7 +9061,7 @@
         <v>0.125</v>
       </c>
       <c r="J128">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K128">
@@ -9086,19 +9089,19 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D129" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E129" s="1">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="24"/>
@@ -9113,10 +9116,10 @@
       </c>
       <c r="I129">
         <f>IFERROR(VLOOKUP($E129, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.17499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="J129">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K129">
@@ -9124,39 +9127,39 @@
       </c>
       <c r="L129">
         <f>IFERROR(VLOOKUP($E129, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
       <c r="N129">
         <f t="shared" si="26"/>
-        <v>0.17499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="O129">
         <f t="shared" si="27"/>
-        <v>0.72500000000000009</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="P129">
         <f t="shared" si="28"/>
-        <v>1.175</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D130" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E130" s="1">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="24"/>
@@ -9171,10 +9174,10 @@
       </c>
       <c r="I130">
         <f>IFERROR(VLOOKUP($E130, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.25</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="J130">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K130">
@@ -9182,39 +9185,39 @@
       </c>
       <c r="L130">
         <f>IFERROR(VLOOKUP($E130, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
         <f t="shared" si="26"/>
-        <v>0.25</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O130">
         <f t="shared" si="27"/>
-        <v>0.95</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="P130">
         <f t="shared" si="28"/>
-        <v>1.25</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D131" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131" s="1">
-        <v>0.5</v>
+        <v>23.5</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="24"/>
@@ -9229,10 +9232,10 @@
       </c>
       <c r="I131">
         <f>IFERROR(VLOOKUP($E131, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="J131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K131">
@@ -9240,43 +9243,43 @@
       </c>
       <c r="L131">
         <f>IFERROR(VLOOKUP($E131, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="N131">
         <f t="shared" si="26"/>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="O131">
         <f t="shared" si="27"/>
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="P131">
         <f t="shared" si="28"/>
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D132" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132" s="1">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="24"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>212</v>
@@ -9287,10 +9290,10 @@
       </c>
       <c r="I132">
         <f>IFERROR(VLOOKUP($E132, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.875</v>
+        <v>0.35</v>
       </c>
       <c r="J132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K132">
@@ -9298,30 +9301,30 @@
       </c>
       <c r="L132">
         <f>IFERROR(VLOOKUP($E132, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
       <c r="N132">
         <f t="shared" si="26"/>
-        <v>0.875</v>
+        <v>0.35</v>
       </c>
       <c r="O132">
         <f t="shared" si="27"/>
-        <v>1.875</v>
+        <v>1.25</v>
       </c>
       <c r="P132">
         <f t="shared" si="28"/>
-        <v>1.875</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>204</v>
@@ -9330,11 +9333,11 @@
         <v>18</v>
       </c>
       <c r="E133" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="24"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>212</v>
@@ -9345,10 +9348,10 @@
       </c>
       <c r="I133">
         <f>IFERROR(VLOOKUP($E133, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.67500000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="J133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K133">
@@ -9363,32 +9366,32 @@
       </c>
       <c r="N133">
         <f t="shared" si="26"/>
-        <v>0.67500000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="O133">
         <f t="shared" si="27"/>
-        <v>1.675</v>
+        <v>1.875</v>
       </c>
       <c r="P133">
         <f t="shared" si="28"/>
-        <v>1.675</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D134" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E134" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="24"/>
@@ -9403,10 +9406,10 @@
       </c>
       <c r="I134">
         <f>IFERROR(VLOOKUP($E134, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.875</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K134">
@@ -9421,39 +9424,39 @@
       </c>
       <c r="N134">
         <f t="shared" si="26"/>
-        <v>0.875</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="O134">
         <f t="shared" si="27"/>
-        <v>1.875</v>
+        <v>1.675</v>
       </c>
       <c r="P134">
         <f t="shared" si="28"/>
-        <v>1.875</v>
+        <v>1.675</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="D135" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E135" s="1">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H135">
         <f>IFERROR(VLOOKUP($D135, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
@@ -9461,10 +9464,10 @@
       </c>
       <c r="I135">
         <f>IFERROR(VLOOKUP($E135, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="J135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K135">
@@ -9472,39 +9475,39 @@
       </c>
       <c r="L135">
         <f>IFERROR(VLOOKUP($E135, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
       <c r="N135">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="O135">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="P135">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D136" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E136" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="24"/>
@@ -9519,10 +9522,10 @@
       </c>
       <c r="I136">
         <f>IFERROR(VLOOKUP($E136, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K136">
@@ -9530,43 +9533,43 @@
       </c>
       <c r="L136">
         <f>IFERROR(VLOOKUP($E136, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>1</v>
       </c>
       <c r="N136">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O136">
         <f t="shared" si="27"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P136">
         <f t="shared" si="28"/>
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D137" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E137" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>211</v>
@@ -9577,108 +9580,108 @@
       </c>
       <c r="I137">
         <f>IFERROR(VLOOKUP($E137, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
         <f>IFERROR(VLOOKUP($E137, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M137">
         <v>1</v>
       </c>
       <c r="N137">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O137">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P137">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D138" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E138" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H138">
         <f>IFERROR(VLOOKUP($D138, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <f>IFERROR(VLOOKUP($E138, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
       <c r="L138">
         <f>IFERROR(VLOOKUP($E138, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
         <f t="shared" si="26"/>
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="O138">
         <f t="shared" si="27"/>
-        <v>0.16</v>
+        <v>2</v>
       </c>
       <c r="P138">
         <f t="shared" si="28"/>
-        <v>1.1599999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D139" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E139" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="24"/>
@@ -9689,14 +9692,14 @@
       </c>
       <c r="H139">
         <f>IFERROR(VLOOKUP($D139, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I139">
         <f>IFERROR(VLOOKUP($E139, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K139">
@@ -9704,43 +9707,43 @@
       </c>
       <c r="L139">
         <f>IFERROR(VLOOKUP($E139, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
         <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="O139">
         <f t="shared" si="27"/>
-        <v>1.4</v>
+        <v>0.16</v>
       </c>
       <c r="P139">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D140" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E140" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>211</v>
@@ -9751,11 +9754,11 @@
       </c>
       <c r="I140">
         <f>IFERROR(VLOOKUP($E140, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J140">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9769,90 +9772,90 @@
       </c>
       <c r="N140">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O140">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P140">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" t="s">
-        <v>78</v>
+      <c r="A141" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D141" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E141" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H141">
         <f>IFERROR(VLOOKUP($D141, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <f>IFERROR(VLOOKUP($E141, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="J141">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141">
         <f>IFERROR(VLOOKUP($E141, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141">
         <v>1</v>
       </c>
       <c r="N141">
         <f t="shared" si="26"/>
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="O141">
         <f t="shared" si="27"/>
-        <v>0.16</v>
+        <v>2</v>
       </c>
       <c r="P141">
         <f t="shared" si="28"/>
-        <v>1.1599999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D142" s="1">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1">
         <v>14</v>
-      </c>
-      <c r="E142" s="1">
-        <v>22</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="24"/>
@@ -9863,14 +9866,14 @@
       </c>
       <c r="H142">
         <f>IFERROR(VLOOKUP($D142, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I142">
         <f>IFERROR(VLOOKUP($E142, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K142">
@@ -9878,57 +9881,57 @@
       </c>
       <c r="L142">
         <f>IFERROR(VLOOKUP($E142, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>1</v>
       </c>
       <c r="N142">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O142">
         <f t="shared" si="27"/>
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="P142">
         <f t="shared" si="28"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D143" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E143" s="1">
         <v>22</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H143">
         <f>IFERROR(VLOOKUP($D143, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <f>IFERROR(VLOOKUP($E143, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0.15</v>
       </c>
       <c r="J143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K143">
@@ -9943,23 +9946,23 @@
       </c>
       <c r="N143">
         <f t="shared" si="26"/>
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="O143">
         <f t="shared" si="27"/>
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="P143">
         <f t="shared" si="28"/>
-        <v>1.31</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>62</v>
@@ -9968,11 +9971,11 @@
         <v>6</v>
       </c>
       <c r="E144" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>211</v>
@@ -9983,10 +9986,10 @@
       </c>
       <c r="I144">
         <f>IFERROR(VLOOKUP($E144, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K144">
@@ -9994,57 +9997,57 @@
       </c>
       <c r="L144">
         <f>IFERROR(VLOOKUP($E144, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M144">
         <v>1</v>
       </c>
       <c r="N144">
         <f t="shared" si="26"/>
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="O144">
         <f t="shared" si="27"/>
-        <v>0.16</v>
+        <v>0.81</v>
       </c>
       <c r="P144">
         <f t="shared" si="28"/>
-        <v>1.1599999999999999</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D145" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E145" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H145">
         <f>IFERROR(VLOOKUP($D145, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I145">
         <f>IFERROR(VLOOKUP($E145, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K145">
@@ -10052,57 +10055,57 @@
       </c>
       <c r="L145">
         <f>IFERROR(VLOOKUP($E145, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M145">
         <v>1</v>
       </c>
       <c r="N145">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O145">
         <f t="shared" si="27"/>
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="P145">
         <f t="shared" si="28"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D146" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E146" s="1">
         <v>22</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H146">
         <f>IFERROR(VLOOKUP($D146, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <f>IFERROR(VLOOKUP($E146, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0.15</v>
       </c>
       <c r="J146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K146">
@@ -10116,24 +10119,24 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <f t="shared" ref="N146:N162" si="32">H146+I146+J146+K146</f>
-        <v>0.31</v>
+        <f t="shared" si="26"/>
+        <v>0.15</v>
       </c>
       <c r="O146">
-        <f t="shared" ref="O146:O162" si="33">N146+L146</f>
-        <v>0.81</v>
+        <f t="shared" si="27"/>
+        <v>0.65</v>
       </c>
       <c r="P146">
-        <f t="shared" ref="P146:P162" si="34">N146+M146</f>
-        <v>1.31</v>
+        <f t="shared" si="28"/>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>62</v>
@@ -10142,11 +10145,11 @@
         <v>6</v>
       </c>
       <c r="E147" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" ref="F147:F162" si="35">IF($E147&gt;$D147, $E147-$D147, 24+$E147-$D147)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>16</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>211</v>
@@ -10157,10 +10160,10 @@
       </c>
       <c r="I147">
         <f>IFERROR(VLOOKUP($E147, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J147">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K147">
@@ -10168,30 +10171,30 @@
       </c>
       <c r="L147">
         <f>IFERROR(VLOOKUP($E147, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M147">
         <v>1</v>
       </c>
       <c r="N147">
-        <f t="shared" si="32"/>
-        <v>0.16</v>
+        <f t="shared" ref="N147:N163" si="35">H147+I147+J147+K147</f>
+        <v>0.31</v>
       </c>
       <c r="O147">
-        <f t="shared" si="33"/>
-        <v>0.16</v>
+        <f t="shared" ref="O147:O163" si="36">N147+L147</f>
+        <v>0.81</v>
       </c>
       <c r="P147">
-        <f t="shared" si="34"/>
-        <v>1.1599999999999999</v>
+        <f t="shared" ref="P147:P163" si="37">N147+M147</f>
+        <v>1.31</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>62</v>
@@ -10200,11 +10203,11 @@
         <v>6</v>
       </c>
       <c r="E148" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="35"/>
-        <v>10</v>
+        <f t="shared" ref="F148:F163" si="38">IF($E148&gt;$D148, $E148-$D148, 24+$E148-$D148)</f>
+        <v>6</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>211</v>
@@ -10218,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K148">
@@ -10232,24 +10235,24 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.16</v>
       </c>
       <c r="O148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16</v>
       </c>
       <c r="P148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>62</v>
@@ -10258,11 +10261,11 @@
         <v>6</v>
       </c>
       <c r="E149" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="35"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>211</v>
@@ -10276,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K149">
@@ -10290,51 +10293,51 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.16</v>
       </c>
       <c r="O149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16</v>
       </c>
       <c r="P149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D150" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E150" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="35"/>
-        <v>7</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H150">
         <f>IFERROR(VLOOKUP($D150, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I150">
         <f>IFERROR(VLOOKUP($E150, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="J150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K150">
@@ -10348,24 +10351,24 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>0.16</v>
       </c>
       <c r="O150">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>0.16</v>
       </c>
       <c r="P150">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="B151" t="s">
-        <v>401</v>
+        <v>88</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>62</v>
@@ -10377,7 +10380,7 @@
         <v>15</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="G151" s="8" t="s">
@@ -10392,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K151">
@@ -10406,24 +10409,24 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <f t="shared" ref="N151" si="36">H151+I151+J151+K151</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O151">
-        <f t="shared" ref="O151" si="37">N151+L151</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P151">
-        <f t="shared" ref="P151" si="38">N151+M151</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>62</v>
@@ -10435,7 +10438,7 @@
         <v>15</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="G152" s="8" t="s">
@@ -10450,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K152">
@@ -10478,23 +10481,23 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D153" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E153" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="35"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>7</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>211</v>
@@ -10505,10 +10508,10 @@
       </c>
       <c r="I153">
         <f>IFERROR(VLOOKUP($E153, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K153">
@@ -10516,43 +10519,43 @@
       </c>
       <c r="L153">
         <f>IFERROR(VLOOKUP($E153, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M153">
         <v>1</v>
       </c>
       <c r="N153">
-        <f t="shared" si="32"/>
-        <v>0.3</v>
+        <f t="shared" ref="N153" si="42">H153+I153+J153+K153</f>
+        <v>0</v>
       </c>
       <c r="O153">
-        <f t="shared" si="33"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" ref="O153" si="43">N153+L153</f>
+        <v>0</v>
       </c>
       <c r="P153">
-        <f t="shared" si="34"/>
-        <v>1.3</v>
+        <f t="shared" ref="P153" si="44">N153+M153</f>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B154" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D154" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E154" s="1">
         <v>24</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="35"/>
-        <v>9</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>211</v>
@@ -10566,7 +10569,7 @@
         <v>0.3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K154">
@@ -10580,24 +10583,24 @@
         <v>1</v>
       </c>
       <c r="N154">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.3</v>
       </c>
       <c r="O154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>399</v>
+        <v>90</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>62</v>
@@ -10609,7 +10612,7 @@
         <v>24</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="G155" s="8" t="s">
@@ -10624,7 +10627,7 @@
         <v>0.3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K155">
@@ -10638,24 +10641,24 @@
         <v>1</v>
       </c>
       <c r="N155">
-        <f t="shared" ref="N155" si="42">H155+I155+J155+K155</f>
+        <f t="shared" si="35"/>
         <v>0.3</v>
       </c>
       <c r="O155">
-        <f t="shared" ref="O155" si="43">N155+L155</f>
+        <f t="shared" si="36"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P155">
-        <f t="shared" ref="P155" si="44">N155+M155</f>
+        <f t="shared" si="37"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>115</v>
+        <v>399</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
+        <v>406</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>62</v>
@@ -10664,11 +10667,11 @@
         <v>15</v>
       </c>
       <c r="E156" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="35"/>
-        <v>7</v>
+        <f t="shared" si="38"/>
+        <v>9</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>211</v>
@@ -10679,10 +10682,10 @@
       </c>
       <c r="I156">
         <f>IFERROR(VLOOKUP($E156, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K156">
@@ -10690,30 +10693,30 @@
       </c>
       <c r="L156">
         <f>IFERROR(VLOOKUP($E156, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M156">
         <v>1</v>
       </c>
       <c r="N156">
-        <f t="shared" si="32"/>
-        <v>0.15</v>
+        <f t="shared" ref="N156" si="45">H156+I156+J156+K156</f>
+        <v>0.3</v>
       </c>
       <c r="O156">
-        <f t="shared" si="33"/>
-        <v>0.65</v>
+        <f t="shared" ref="O156" si="46">N156+L156</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P156">
-        <f t="shared" si="34"/>
-        <v>1.1499999999999999</v>
+        <f t="shared" ref="P156" si="47">N156+M156</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="B157" t="s">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>62</v>
@@ -10725,7 +10728,7 @@
         <v>22</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="G157" s="8" t="s">
@@ -10740,7 +10743,7 @@
         <v>0.15</v>
       </c>
       <c r="J157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K157">
@@ -10754,24 +10757,24 @@
         <v>1</v>
       </c>
       <c r="N157">
-        <f t="shared" ref="N157" si="45">H157+I157+J157+K157</f>
+        <f t="shared" si="35"/>
         <v>0.15</v>
       </c>
       <c r="O157">
-        <f t="shared" ref="O157" si="46">N157+L157</f>
+        <f t="shared" si="36"/>
         <v>0.65</v>
       </c>
       <c r="P157">
-        <f t="shared" ref="P157" si="47">N157+M157</f>
+        <f t="shared" si="37"/>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B158" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>62</v>
@@ -10783,7 +10786,7 @@
         <v>22</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="G158" s="8" t="s">
@@ -10798,7 +10801,7 @@
         <v>0.15</v>
       </c>
       <c r="J158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K158">
@@ -10826,23 +10829,23 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s">
-        <v>193</v>
+        <v>405</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="D159" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E159" s="1">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="35"/>
-        <v>7.5</v>
+        <f t="shared" si="38"/>
+        <v>7</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>211</v>
@@ -10853,10 +10856,10 @@
       </c>
       <c r="I159">
         <f>IFERROR(VLOOKUP($E159, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K159">
@@ -10864,43 +10867,43 @@
       </c>
       <c r="L159">
         <f>IFERROR(VLOOKUP($E159, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M159">
         <v>1</v>
       </c>
       <c r="N159">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" ref="N159" si="51">H159+I159+J159+K159</f>
+        <v>0.15</v>
       </c>
       <c r="O159">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" ref="O159" si="52">N159+L159</f>
+        <v>0.65</v>
       </c>
       <c r="P159">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" ref="P159" si="53">N159+M159</f>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D160" s="1">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1">
         <v>16.5</v>
       </c>
-      <c r="E160" s="1">
-        <v>1</v>
-      </c>
       <c r="F160" s="1">
-        <f t="shared" si="35"/>
-        <v>8.5</v>
+        <f t="shared" si="38"/>
+        <v>7.5</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>211</v>
@@ -10911,10 +10914,10 @@
       </c>
       <c r="I160">
         <f>IFERROR(VLOOKUP($E160, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K160">
@@ -10922,43 +10925,43 @@
       </c>
       <c r="L160">
         <f>IFERROR(VLOOKUP($E160, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160">
         <v>1</v>
       </c>
       <c r="N160">
-        <f t="shared" si="32"/>
-        <v>0.4</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="O160">
-        <f t="shared" si="33"/>
-        <v>1.4</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="P160">
-        <f t="shared" si="34"/>
-        <v>1.4</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D161" s="1">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="E161" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="35"/>
-        <v>8</v>
+        <f t="shared" si="38"/>
+        <v>8.5</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>211</v>
@@ -10969,11 +10972,11 @@
       </c>
       <c r="I161">
         <f>IFERROR(VLOOKUP($E161, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J161">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -10986,87 +10989,135 @@
         <v>1</v>
       </c>
       <c r="N161">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.4</v>
       </c>
       <c r="O161">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>1.4</v>
       </c>
       <c r="P161">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D162" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="35"/>
-        <v>11</v>
+        <f t="shared" si="38"/>
+        <v>8</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H162">
         <f>IFERROR(VLOOKUP($D162, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <f>IFERROR(VLOOKUP($E162, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
         <f>IFERROR(VLOOKUP($E162, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
       <c r="N162">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B163" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163" s="1">
+        <v>5</v>
+      </c>
+      <c r="E163" s="1">
+        <v>16</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H163">
+        <f>IFERROR(VLOOKUP($D163, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
         <v>0.33</v>
       </c>
-      <c r="O162">
-        <f t="shared" si="33"/>
+      <c r="I163">
+        <f>IFERROR(VLOOKUP($E163, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <f>IFERROR(VLOOKUP($E163, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="35"/>
         <v>0.33</v>
       </c>
-      <c r="P162">
-        <f t="shared" si="34"/>
+      <c r="O163">
+        <f t="shared" si="36"/>
+        <v>0.33</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="37"/>
         <v>1.33</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="8"/>
-    </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
-        <v>413</v>
-      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -11074,79 +11125,35 @@
       <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D165" s="2">
-        <v>11</v>
-      </c>
-      <c r="E165" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="F165" s="2">
-        <v>13</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>1</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <f>IFERROR(VLOOKUP($E165, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <f>H165+I165+J165+K165</f>
-        <v>1</v>
-      </c>
-      <c r="O165">
-        <f>N165+L165</f>
-        <v>1</v>
-      </c>
-      <c r="P165">
-        <f>N165+M165</f>
-        <v>2</v>
-      </c>
+      <c r="A165" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B166" t="s">
-        <v>251</v>
-      </c>
-      <c r="C166" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D166" s="1">
-        <v>0</v>
-      </c>
-      <c r="E166" s="1">
+      <c r="D166" s="2">
         <v>11</v>
       </c>
-      <c r="F166" s="1">
-        <v>11</v>
-      </c>
-      <c r="G166" s="8" t="s">
+      <c r="E166" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="F166" s="2">
+        <v>13</v>
+      </c>
+      <c r="G166" s="9" t="s">
         <v>211</v>
       </c>
       <c r="H166">
@@ -11183,24 +11190,24 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C167" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
+        <v>251</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
         <v>11</v>
       </c>
-      <c r="E167" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="F167" s="2">
-        <v>13</v>
-      </c>
-      <c r="G167" s="9" t="s">
+      <c r="F167" s="1">
+        <v>11</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H167">
@@ -11223,38 +11230,38 @@
         <v>1</v>
       </c>
       <c r="N167">
-        <f t="shared" ref="N167:N168" si="51">H167+I167+J167+K167</f>
+        <f>H167+I167+J167+K167</f>
         <v>1</v>
       </c>
       <c r="O167">
-        <f t="shared" ref="O167:O168" si="52">N167+L167</f>
+        <f>N167+L167</f>
         <v>1</v>
       </c>
       <c r="P167">
-        <f t="shared" ref="P167:P168" si="53">N167+M167</f>
+        <f>N167+M167</f>
         <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B168" t="s">
-        <v>300</v>
-      </c>
-      <c r="C168" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="2">
         <v>11</v>
       </c>
-      <c r="F168" s="1">
-        <v>11</v>
-      </c>
-      <c r="G168" s="8" t="s">
+      <c r="E168" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="F168" s="2">
+        <v>13</v>
+      </c>
+      <c r="G168" s="9" t="s">
         <v>211</v>
       </c>
       <c r="H168">
@@ -11277,36 +11284,36 @@
         <v>1</v>
       </c>
       <c r="N168">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="N168:N169" si="54">H168+I168+J168+K168</f>
         <v>1</v>
       </c>
       <c r="O168">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="O168:O169" si="55">N168+L168</f>
         <v>1</v>
       </c>
       <c r="P168">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="P168:P169" si="56">N168+M168</f>
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="B169" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="D169" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E169" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F169" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>211</v>
@@ -11318,37 +11325,37 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169">
         <f>IFERROR(VLOOKUP($E169, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <f>H169+I169+J169+K169</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="O169">
-        <f>N169+L169</f>
-        <v>2</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="P169">
-        <f>N169+M169</f>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>205</v>
@@ -11399,10 +11406,10 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B171" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>205</v>
@@ -11453,10 +11460,10 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>205</v>
@@ -11507,10 +11514,10 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>205</v>
@@ -11561,10 +11568,10 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>205</v>
@@ -11601,24 +11608,24 @@
         <v>1</v>
       </c>
       <c r="N174">
-        <f t="shared" ref="N174:N179" si="54">H174+I174+J174+K174</f>
+        <f>H174+I174+J174+K174</f>
         <v>1</v>
       </c>
       <c r="O174">
-        <f t="shared" ref="O174:O178" si="55">N174+L174</f>
+        <f>N174+L174</f>
         <v>2</v>
       </c>
       <c r="P174">
-        <f t="shared" ref="P174:P179" si="56">N174+M174</f>
+        <f>N174+M174</f>
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>205</v>
@@ -11655,21 +11662,21 @@
         <v>1</v>
       </c>
       <c r="N175">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="N175:N180" si="57">H175+I175+J175+K175</f>
         <v>1</v>
       </c>
       <c r="O175">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="O175:O179" si="58">N175+L175</f>
         <v>2</v>
       </c>
       <c r="P175">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="P175:P180" si="59">N175+M175</f>
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B176" t="s">
         <v>340</v>
@@ -11709,24 +11716,24 @@
         <v>1</v>
       </c>
       <c r="N176">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O176">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="P176">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>205</v>
@@ -11763,24 +11770,24 @@
         <v>1</v>
       </c>
       <c r="N177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="P177">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>205</v>
@@ -11792,7 +11799,7 @@
         <v>4</v>
       </c>
       <c r="F178" s="1">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>211</v>
@@ -11817,145 +11824,142 @@
         <v>1</v>
       </c>
       <c r="N178">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O178">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="P178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="B179" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="D179" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E179" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H179" s="1">
-        <v>0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="1">
-        <v>0</v>
-      </c>
-      <c r="K179" s="1">
-        <v>0</v>
-      </c>
-      <c r="L179" s="1">
-        <v>0</v>
-      </c>
-      <c r="M179" s="1">
-        <v>0</v>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <f>IFERROR(VLOOKUP($E179, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
       </c>
       <c r="N179">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="O179">
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>2</v>
       </c>
       <c r="P179">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D180" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E180" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F180" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H180">
-        <f>IFERROR(VLOOKUP($D180, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <f>IFERROR(VLOOKUP($E180, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J180">
-        <f xml:space="preserve"> IF(AND($E180 &gt;=4, $E180 &lt;=11), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <f>IFERROR(VLOOKUP($E180, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M180">
-        <v>1</v>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1">
+        <v>0</v>
       </c>
       <c r="N180">
-        <f>H180+I180+J180+K180</f>
-        <v>0.05</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="O180">
-        <f>N180+L180</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P180">
-        <f>N180+M180</f>
-        <v>1.05</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>198</v>
+        <v>415</v>
+      </c>
+      <c r="B181" t="s">
+        <v>417</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D181" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E181" s="1">
         <v>20</v>
       </c>
       <c r="F181" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>211</v>
@@ -11965,7 +11969,8 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>2.5000000000000001E-2</v>
+        <f>IFERROR(VLOOKUP($E181, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+        <v>0.05</v>
       </c>
       <c r="J181">
         <f xml:space="preserve"> IF(AND($E181 &gt;=4, $E181 &lt;=11), 1, 0)</f>
@@ -11975,42 +11980,43 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.15</v>
+        <f>IFERROR(VLOOKUP($E181, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>0.3</v>
       </c>
       <c r="M181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <f>H181+I181+J181+K181</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O181">
         <f>N181+L181</f>
-        <v>0.17499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="P181">
         <f>N181+M181</f>
-        <v>0.52500000000000002</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B182" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D182" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E182" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F182" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>211</v>
@@ -12020,48 +12026,92 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <f>IFERROR(VLOOKUP($E182, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J182">
         <f xml:space="preserve"> IF(AND($E182 &gt;=4, $E182 &lt;=11), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <f>IFERROR(VLOOKUP($E182, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N182">
         <f>H182+I182+J182+K182</f>
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O182">
         <f>N182+L182</f>
-        <v>2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="P182">
         <f>N182+M182</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B183" t="s">
+        <v>91</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>6</v>
+      </c>
+      <c r="F183" s="1">
+        <v>8</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H183">
+        <f>IFERROR(VLOOKUP($D183, 'Shift Credit Lookup Table'!$A$2:$B$7, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <f>IFERROR(VLOOKUP($E183, 'Shift Credit Lookup Table'!$D$2:$E$17, 2, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <f xml:space="preserve"> IF(AND($E183 &gt;=4, $E183 &lt;=11), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <f>IFERROR(VLOOKUP($E183, 'Shift Credit Lookup Table'!$G$2:$H$30, 2, FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <f>H183+I183+J183+K183</f>
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <f>N183+L183</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="8"/>
+      <c r="P183">
+        <f>N183+M183</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B184" s="13"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -12069,64 +12119,25 @@
       <c r="G184" s="8"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B185" t="s">
-        <v>219</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D185" s="1">
-        <v>4</v>
-      </c>
-      <c r="E185" s="1">
-        <v>4</v>
-      </c>
-      <c r="F185" s="1">
-        <v>0</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185" s="1">
-        <v>0</v>
-      </c>
-      <c r="J185" s="1">
-        <v>0</v>
-      </c>
-      <c r="K185" s="1">
-        <v>0</v>
-      </c>
-      <c r="L185" s="1">
-        <v>0</v>
-      </c>
-      <c r="M185" s="1">
-        <v>0</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
+      <c r="A185" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D186" s="1">
         <v>4</v>
@@ -12170,22 +12181,22 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>267</v>
-      </c>
-      <c r="C187" t="s">
-        <v>62</v>
-      </c>
-      <c r="D187">
-        <v>6</v>
-      </c>
-      <c r="E187">
-        <v>9</v>
-      </c>
-      <c r="F187">
-        <v>3</v>
+        <v>221</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1">
+        <v>4</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>211</v>
@@ -12220,7 +12231,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B188" t="s">
         <v>267</v>
@@ -12229,13 +12240,13 @@
         <v>62</v>
       </c>
       <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188">
         <v>9</v>
       </c>
-      <c r="E188">
-        <v>14</v>
-      </c>
       <c r="F188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>211</v>
@@ -12270,7 +12281,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B189" t="s">
         <v>267</v>
@@ -12279,13 +12290,13 @@
         <v>62</v>
       </c>
       <c r="D189">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E189">
         <v>14</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>211</v>
@@ -12320,7 +12331,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
         <v>267</v>
@@ -12329,13 +12340,13 @@
         <v>62</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>211</v>
@@ -12370,7 +12381,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B191" t="s">
         <v>267</v>
@@ -12379,13 +12390,13 @@
         <v>62</v>
       </c>
       <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
         <v>10</v>
       </c>
-      <c r="E191">
-        <v>12</v>
-      </c>
       <c r="F191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>211</v>
@@ -12420,7 +12431,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
         <v>267</v>
@@ -12429,13 +12440,13 @@
         <v>62</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E192">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>211</v>
@@ -12470,7 +12481,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
         <v>267</v>
@@ -12479,13 +12490,13 @@
         <v>62</v>
       </c>
       <c r="D193">
+        <v>14</v>
+      </c>
+      <c r="E193">
         <v>18</v>
       </c>
-      <c r="E193">
-        <v>20</v>
-      </c>
       <c r="F193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>211</v>
@@ -12520,7 +12531,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B194" t="s">
         <v>267</v>
@@ -12529,15 +12540,15 @@
         <v>62</v>
       </c>
       <c r="D194">
+        <v>18</v>
+      </c>
+      <c r="E194">
         <v>20</v>
-      </c>
-      <c r="E194">
-        <v>22</v>
       </c>
       <c r="F194">
         <v>2</v>
       </c>
-      <c r="G194" s="11" t="s">
+      <c r="G194" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H194">
@@ -12570,7 +12581,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
         <v>267</v>
@@ -12579,13 +12590,13 @@
         <v>62</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>22</v>
       </c>
       <c r="F195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>211</v>
@@ -12593,19 +12604,19 @@
       <c r="H195">
         <v>0</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="M195">
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0</v>
+      </c>
+      <c r="L195" s="1">
+        <v>0</v>
+      </c>
+      <c r="M195" s="1">
         <v>0</v>
       </c>
       <c r="N195">
@@ -12620,7 +12631,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
         <v>267</v>
@@ -12629,13 +12640,13 @@
         <v>62</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E196">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G196" s="11" t="s">
         <v>211</v>
@@ -12643,19 +12654,19 @@
       <c r="H196">
         <v>0</v>
       </c>
-      <c r="I196" s="1">
-        <v>0</v>
-      </c>
-      <c r="J196" s="1">
-        <v>0</v>
-      </c>
-      <c r="K196" s="1">
-        <v>0</v>
-      </c>
-      <c r="L196" s="1">
-        <v>0</v>
-      </c>
-      <c r="M196" s="1">
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
@@ -12670,7 +12681,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B197" t="s">
         <v>267</v>
@@ -12679,13 +12690,13 @@
         <v>62</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G197" s="11" t="s">
         <v>211</v>
@@ -12720,7 +12731,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B198" t="s">
         <v>267</v>
@@ -12729,13 +12740,13 @@
         <v>62</v>
       </c>
       <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198">
         <v>11</v>
       </c>
-      <c r="E198">
-        <v>13</v>
-      </c>
       <c r="F198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G198" s="11" t="s">
         <v>211</v>
@@ -12770,7 +12781,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="B199" t="s">
         <v>267</v>
@@ -12779,13 +12790,13 @@
         <v>62</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G199" s="11" t="s">
         <v>211</v>
@@ -12820,7 +12831,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B200" t="s">
         <v>267</v>
@@ -12829,13 +12840,13 @@
         <v>62</v>
       </c>
       <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200">
         <v>12</v>
       </c>
-      <c r="E200">
-        <v>15</v>
-      </c>
       <c r="F200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G200" s="11" t="s">
         <v>211</v>
@@ -12870,7 +12881,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B201" t="s">
         <v>267</v>
@@ -12879,13 +12890,13 @@
         <v>62</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G201" s="11" t="s">
         <v>211</v>
@@ -12893,19 +12904,19 @@
       <c r="H201">
         <v>0</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="M201">
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0</v>
+      </c>
+      <c r="L201" s="1">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1">
         <v>0</v>
       </c>
       <c r="N201">
@@ -12920,7 +12931,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B202" t="s">
         <v>267</v>
@@ -12929,13 +12940,13 @@
         <v>62</v>
       </c>
       <c r="D202">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E202">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G202" s="11" t="s">
         <v>211</v>
@@ -12970,7 +12981,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="B203" t="s">
         <v>267</v>
@@ -12982,10 +12993,10 @@
         <v>15</v>
       </c>
       <c r="E203">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G203" s="11" t="s">
         <v>211</v>
@@ -12993,19 +13004,19 @@
       <c r="H203">
         <v>0</v>
       </c>
-      <c r="I203" s="1">
-        <v>0</v>
-      </c>
-      <c r="J203" s="1">
-        <v>0</v>
-      </c>
-      <c r="K203" s="1">
-        <v>0</v>
-      </c>
-      <c r="L203" s="1">
-        <v>0</v>
-      </c>
-      <c r="M203" s="1">
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
         <v>0</v>
       </c>
       <c r="N203">
@@ -13020,7 +13031,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B204" t="s">
         <v>267</v>
@@ -13029,13 +13040,13 @@
         <v>62</v>
       </c>
       <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
         <v>22</v>
       </c>
-      <c r="E204">
-        <v>24</v>
-      </c>
       <c r="F204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G204" s="11" t="s">
         <v>211</v>
@@ -13070,7 +13081,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
         <v>267</v>
@@ -13079,13 +13090,13 @@
         <v>62</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E205">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G205" s="11" t="s">
         <v>211</v>
@@ -13120,7 +13131,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
         <v>267</v>
@@ -13129,13 +13140,13 @@
         <v>62</v>
       </c>
       <c r="D206">
+        <v>14</v>
+      </c>
+      <c r="E206">
         <v>17</v>
       </c>
-      <c r="E206">
-        <v>22</v>
-      </c>
       <c r="F206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G206" s="11" t="s">
         <v>211</v>
@@ -13170,22 +13181,22 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B207" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C207" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G207" s="11" t="s">
         <v>211</v>
@@ -13220,7 +13231,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B208" t="s">
         <v>304</v>
@@ -13270,22 +13281,22 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B209" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G209" s="11" t="s">
         <v>211</v>
@@ -13320,22 +13331,22 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D210">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>19</v>
+      </c>
+      <c r="F210">
         <v>8</v>
-      </c>
-      <c r="E210">
-        <v>22</v>
-      </c>
-      <c r="F210">
-        <v>16</v>
       </c>
       <c r="G210" s="11" t="s">
         <v>211</v>
@@ -13370,22 +13381,22 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B211" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
         <v>204</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F211">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G211" s="11" t="s">
         <v>211</v>
@@ -13420,19 +13431,19 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E212">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F212">
         <v>14</v>
@@ -13470,19 +13481,19 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C213" t="s">
         <v>203</v>
       </c>
       <c r="D213">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F213">
         <v>14</v>
@@ -13519,25 +13530,25 @@
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D214" s="1">
-        <v>6</v>
-      </c>
-      <c r="E214" s="1">
+      <c r="A214" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B214" t="s">
+        <v>294</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214">
+        <v>17</v>
+      </c>
+      <c r="E214">
         <v>7</v>
       </c>
-      <c r="F214" s="1">
-        <v>1</v>
-      </c>
-      <c r="G214" s="8" t="s">
+      <c r="F214">
+        <v>14</v>
+      </c>
+      <c r="G214" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H214">
@@ -13570,19 +13581,19 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D215" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E215" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F215" s="1">
         <v>1</v>
@@ -13620,19 +13631,19 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D216" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E216" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F216" s="1">
         <v>1</v>
@@ -13670,22 +13681,22 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="D217" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E217" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F217" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>211</v>
@@ -13720,23 +13731,22 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>381</v>
+        <v>163</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D218" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" ref="F218:F225" si="57">IF($E218&gt;$D218, $E218-$D218, 24+$E218-$D218)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>211</v>
@@ -13744,19 +13754,19 @@
       <c r="H218">
         <v>0</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-      <c r="M218">
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>0</v>
+      </c>
+      <c r="M218" s="1">
         <v>0</v>
       </c>
       <c r="N218">
@@ -13771,74 +13781,73 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D219" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E219" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>0</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-      <c r="M219">
-        <v>0</v>
-      </c>
-      <c r="N219">
-        <v>0</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+      <c r="K219" s="1">
+        <v>0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>0</v>
+      </c>
+      <c r="M219" s="1">
+        <v>0</v>
+      </c>
+      <c r="N219" s="1">
+        <v>0</v>
+      </c>
+      <c r="O219" s="1">
+        <v>0</v>
+      </c>
+      <c r="P219" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D220" s="1">
-        <v>23.99</v>
+        <v>12</v>
       </c>
       <c r="E220" s="1">
+        <v>20</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" ref="F220:F227" si="60">IF($E220&gt;$D220, $E220-$D220, 24+$E220-$D220)</f>
         <v>8</v>
-      </c>
-      <c r="F220" s="1">
-        <f t="shared" si="57"/>
-        <v>8.0100000000000016</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>211</v>
@@ -13873,22 +13882,22 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D221" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E221" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F221" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="G221" s="8" t="s">
@@ -13924,23 +13933,23 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D222" s="1">
-        <v>9</v>
+        <v>23.99</v>
       </c>
       <c r="E222" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="57"/>
-        <v>8</v>
+        <f t="shared" si="60"/>
+        <v>8.0100000000000016</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>211</v>
@@ -13975,22 +13984,22 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D223" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E223" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="G223" s="8" t="s">
@@ -14026,22 +14035,22 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D224" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E224" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="G224" s="8" t="s">
@@ -14077,52 +14086,154 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D225" s="1">
+        <v>10</v>
+      </c>
+      <c r="E225" s="1">
+        <v>18</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="60"/>
+        <v>8</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D226" s="1">
+        <v>14</v>
+      </c>
+      <c r="E226" s="1">
+        <v>22</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="60"/>
+        <v>8</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D227" s="1">
         <v>15</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E227" s="1">
         <v>23</v>
       </c>
-      <c r="F225" s="1">
-        <f t="shared" si="57"/>
+      <c r="F227" s="1">
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
-      <c r="G225" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H225">
-        <v>0</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
-      </c>
-      <c r="K225">
-        <v>0</v>
-      </c>
-      <c r="L225">
-        <v>0</v>
-      </c>
-      <c r="M225">
-        <v>0</v>
-      </c>
-      <c r="N225">
-        <v>0</v>
-      </c>
-      <c r="O225">
-        <v>0</v>
-      </c>
-      <c r="P225">
+      <c r="G227" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
         <v>0</v>
       </c>
     </row>
